--- a/Indonesia.fta.xlsx
+++ b/Indonesia.fta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Indonesia.fta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC84AEA-5B32-4486-90D1-45246E926484}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A364A97-5A10-4680-8A71-D3217FBEB19E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2D82BD27-3801-49E0-96EF-6CDE45A36144}"/>
   </bookViews>
@@ -7404,11 +7404,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2873BB1D-43FB-4D9C-B312-3B3622184EBD}">
   <dimension ref="A1:EF1106"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="14" topLeftCell="K15" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
